--- a/downloaded_files/SBES477_Tutorial-35519.xlsx
+++ b/downloaded_files/SBES477_Tutorial-35519.xlsx
@@ -93,7 +93,7 @@
     <x:t>زياد خالد عزت عبد المنعم</x:t>
   </x:si>
   <x:si>
-    <x:t>Zeyad khaled ezzat abdel monem</x:t>
+    <x:t>Zeyad khaled Ezzat Abdel Moniem</x:t>
   </x:si>
   <x:si>
     <x:t>1210171</x:t>

--- a/downloaded_files/SBES477_Tutorial-35519.xlsx
+++ b/downloaded_files/SBES477_Tutorial-35519.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -42,6 +42,15 @@
     <x:t>Ahmed Muhammed taha wesal</x:t>
   </x:si>
   <x:si>
+    <x:t>1210129</x:t>
+  </x:si>
+  <x:si>
+    <x:t>باسل أحمد حماد الشحات</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bassel ahmed hammad el shahat</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220229</x:t>
   </x:si>
   <x:si>
@@ -69,6 +78,24 @@
     <x:t>Jana Mohamed Mustafa Ali Mahmoud</x:t>
   </x:si>
   <x:si>
+    <x:t>1210215</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حبيبة وليد أحمد ابراهيم حمودة</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Habiba Walid Ahmed Ibraheem Hammouda</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210218</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حمزة ايمن محي الدين الغنيمي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hamza Ayman Mohyeldin Elghonemy</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210134</x:t>
   </x:si>
   <x:si>
@@ -114,6 +141,15 @@
     <x:t>Sama Mohamed Eid Mohamed</x:t>
   </x:si>
   <x:si>
+    <x:t>1210244</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سيف هشام عبد العزيز عطيه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Saif Hesham Abdelaziz Attia</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210366</x:t>
   </x:si>
   <x:si>
@@ -141,24 +177,6 @@
     <x:t>Alia Tarek Omr Tolba Zayed</x:t>
   </x:si>
   <x:si>
-    <x:t>1210148</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبد الرحمن هشام زكريا عبد المؤمن سالم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman Hesham Zakaria Abdelmoomen Salem</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220063</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن أسامة حسين محمد حماد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman Osama Hussien Mohamed Hammad</x:t>
-  </x:si>
-  <x:si>
     <x:t>1200812</x:t>
   </x:si>
   <x:si>
@@ -168,6 +186,15 @@
     <x:t>abdallah ahmed fouad</x:t>
   </x:si>
   <x:si>
+    <x:t>1210106</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر احمد محمد رفعت السيد حريشه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar ahmed mohamed refaat el sayed</x:t>
+  </x:si>
+  <x:si>
     <x:t>4220130</x:t>
   </x:si>
   <x:si>
@@ -204,15 +231,6 @@
     <x:t>Ghada Tarek Ali  El-Boghdady</x:t>
   </x:si>
   <x:si>
-    <x:t>1220266</x:t>
-  </x:si>
-  <x:si>
-    <x:t>غزل حسام الدين رضوان عصر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ghazzl Hossameldin Radwan Asar</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210374</x:t>
   </x:si>
   <x:si>
@@ -240,6 +258,24 @@
     <x:t>MOHAMED IBRAHIM MOHAMED ELHOSSEINI MORSI</x:t>
   </x:si>
   <x:si>
+    <x:t>1210112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد القاسم احمد الجميل احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed ElKassem Ahmed Elgamil Ahmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1200245</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد ايمن محمد ابراهيم الجعفراوى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Ayman Mohamed Ibrahim</x:t>
+  </x:si>
+  <x:si>
     <x:t>1200434</x:t>
   </x:si>
   <x:si>
@@ -249,6 +285,15 @@
     <x:t>Mohammad Tamer Mostafa Alsaid Abualfadl</x:t>
   </x:si>
   <x:si>
+    <x:t>1200246</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد جلال عبدالعليم ابو زينة</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed galal Abdaleem abu zeina</x:t>
+  </x:si>
+  <x:si>
     <x:t>4220137</x:t>
   </x:si>
   <x:si>
@@ -276,6 +321,15 @@
     <x:t>Mahmoud Mohamed abd alfatah Alsayed</x:t>
   </x:si>
   <x:si>
+    <x:t>1210077</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمود محمد محمود نصر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahmoud mohammed mahmoud nasr</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210378</x:t>
   </x:si>
   <x:si>
@@ -285,33 +339,6 @@
     <x:t>Malak Ahmed Hosny</x:t>
   </x:si>
   <x:si>
-    <x:t>1220209</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ملك فتحي سعد فتحي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Malak fathy saad fathy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220105</x:t>
-  </x:si>
-  <x:si>
-    <x:t>منه الله نبيل عبد العظيم المتولى سيد احمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mennat Allah Nabil Abdel Azim El/Metwally</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220321</x:t>
-  </x:si>
-  <x:si>
-    <x:t>منه هشام رجب علام</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Menna Hesham Ragab Allam</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210084</x:t>
   </x:si>
   <x:si>
@@ -348,6 +375,15 @@
     <x:t>Hamsa Saber Abdulrazek Abokhatwa</x:t>
   </x:si>
   <x:si>
+    <x:t>1210120</x:t>
+  </x:si>
+  <x:si>
+    <x:t>هنا احمد ابراهيم احمد غانم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hana Ahmed Ebrahim Ahmed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220086</x:t>
   </x:si>
   <x:si>
@@ -375,13 +411,22 @@
     <x:t>yousef ahmed mohamed awad hassan ellakany</x:t>
   </x:si>
   <x:si>
-    <x:t>2220010</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف حسانين احمد على السيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Hassanein Ahmed</x:t>
+    <x:t>2200005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف جمال حلمى عبدالله سعد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Gamal Helmy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1190292</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف رأفت فتحى محمد حسين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yousef Rafaat fathey mohamed Hussien</x:t>
   </x:si>
   <x:si>
     <x:t>1200320</x:t>
@@ -506,7 +551,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E46" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -806,7 +851,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T41"/>
+  <x:dimension ref="A1:T46"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -816,7 +861,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="31.860625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="52.460625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -929,7 +974,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.4174366088</x:v>
+        <x:v>45927.4220653588</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -961,7 +1006,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.4155689815</x:v>
+        <x:v>45907.4174366088</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -993,7 +1038,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4332609606</x:v>
+        <x:v>45906.4155689815</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1025,7 +1070,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.4404302894</x:v>
+        <x:v>45907.4332609606</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1057,7 +1102,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.4200734954</x:v>
+        <x:v>45927.4252511227</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1089,7 +1134,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6644150463</x:v>
+        <x:v>45927.4485697107</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1121,7 +1166,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.4145134259</x:v>
+        <x:v>45906.4404302894</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1153,7 +1198,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.4150404282</x:v>
+        <x:v>45906.4200734954</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1185,7 +1230,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4174870023</x:v>
+        <x:v>45906.6644150463</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1217,7 +1262,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4150041667</x:v>
+        <x:v>45906.4145134259</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1249,7 +1294,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.415122419</x:v>
+        <x:v>45906.4150404282</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1281,7 +1326,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.664537581</x:v>
+        <x:v>45927.4175393519</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1313,7 +1358,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4232127315</x:v>
+        <x:v>45906.4174870023</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1345,7 +1390,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4164278935</x:v>
+        <x:v>45906.4150041667</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1377,7 +1422,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4147752315</x:v>
+        <x:v>45906.415122419</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1409,7 +1454,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4791952546</x:v>
+        <x:v>45906.4164278935</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1441,7 +1486,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4176945255</x:v>
+        <x:v>45927.4285945602</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1473,7 +1518,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4144965625</x:v>
+        <x:v>45906.4147752315</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1505,7 +1550,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4182059838</x:v>
+        <x:v>45906.4791952546</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1537,7 +1582,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4151895486</x:v>
+        <x:v>45906.4176945255</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1569,7 +1614,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.418968206</x:v>
+        <x:v>45906.4144965625</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1601,7 +1646,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4146040509</x:v>
+        <x:v>45907.4151895486</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1633,7 +1678,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4151915856</x:v>
+        <x:v>45907.418968206</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1665,7 +1710,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4145881944</x:v>
+        <x:v>45906.4146040509</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1697,7 +1742,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.4155145833</x:v>
+        <x:v>45927.4276226505</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1729,7 +1774,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.4150845718</x:v>
+        <x:v>45927.4784335301</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1761,7 +1806,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.5663584144</x:v>
+        <x:v>45906.4151915856</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1793,7 +1838,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4166456829</x:v>
+        <x:v>45927.4804253819</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1825,7 +1870,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4211539352</x:v>
+        <x:v>45906.4145881944</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1857,7 +1902,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4148210301</x:v>
+        <x:v>45906.4155145833</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1889,7 +1934,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.4145290509</x:v>
+        <x:v>45906.4150845718</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1921,7 +1966,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.4148792014</x:v>
+        <x:v>45927.4149894676</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1953,7 +1998,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.4382373032</x:v>
+        <x:v>45906.5663584144</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1985,7 +2030,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.4148091782</x:v>
+        <x:v>45906.4145290509</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2017,7 +2062,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.4169562847</x:v>
+        <x:v>45906.4148792014</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2049,7 +2094,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.4144693287</x:v>
+        <x:v>45906.4382373032</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2081,7 +2126,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.4156043171</x:v>
+        <x:v>45906.4148091782</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2113,7 +2158,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.4152550116</x:v>
+        <x:v>45927.41639375</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2145,7 +2190,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.4157806366</x:v>
+        <x:v>45907.4169562847</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2162,6 +2207,166 @@
       <x:c r="R41" s="2" t="s"/>
       <x:c r="S41" s="2" t="s"/>
       <x:c r="T41" s="2" t="s"/>
+    </x:row>
+    <x:row r="42" spans="1:20">
+      <x:c r="A42" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B42" s="2" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="D42" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="E42" s="3">
+        <x:v>45906.4144693287</x:v>
+      </x:c>
+      <x:c r="F42" s="2" t="s"/>
+      <x:c r="G42" s="2" t="s"/>
+      <x:c r="H42" s="2" t="s"/>
+      <x:c r="I42" s="2" t="s"/>
+      <x:c r="J42" s="2" t="s"/>
+      <x:c r="K42" s="2" t="s"/>
+      <x:c r="L42" s="2" t="s"/>
+      <x:c r="M42" s="2" t="s"/>
+      <x:c r="N42" s="2" t="s"/>
+      <x:c r="O42" s="2" t="s"/>
+      <x:c r="P42" s="2" t="s"/>
+      <x:c r="Q42" s="2" t="s"/>
+      <x:c r="R42" s="2" t="s"/>
+      <x:c r="S42" s="2" t="s"/>
+      <x:c r="T42" s="2" t="s"/>
+    </x:row>
+    <x:row r="43" spans="1:20">
+      <x:c r="A43" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B43" s="2" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="D43" s="2" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="E43" s="3">
+        <x:v>45906.4156043171</x:v>
+      </x:c>
+      <x:c r="F43" s="2" t="s"/>
+      <x:c r="G43" s="2" t="s"/>
+      <x:c r="H43" s="2" t="s"/>
+      <x:c r="I43" s="2" t="s"/>
+      <x:c r="J43" s="2" t="s"/>
+      <x:c r="K43" s="2" t="s"/>
+      <x:c r="L43" s="2" t="s"/>
+      <x:c r="M43" s="2" t="s"/>
+      <x:c r="N43" s="2" t="s"/>
+      <x:c r="O43" s="2" t="s"/>
+      <x:c r="P43" s="2" t="s"/>
+      <x:c r="Q43" s="2" t="s"/>
+      <x:c r="R43" s="2" t="s"/>
+      <x:c r="S43" s="2" t="s"/>
+      <x:c r="T43" s="2" t="s"/>
+    </x:row>
+    <x:row r="44" spans="1:20">
+      <x:c r="A44" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B44" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="C44" s="2" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="D44" s="2" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="E44" s="3">
+        <x:v>45927.417409294</x:v>
+      </x:c>
+      <x:c r="F44" s="2" t="s"/>
+      <x:c r="G44" s="2" t="s"/>
+      <x:c r="H44" s="2" t="s"/>
+      <x:c r="I44" s="2" t="s"/>
+      <x:c r="J44" s="2" t="s"/>
+      <x:c r="K44" s="2" t="s"/>
+      <x:c r="L44" s="2" t="s"/>
+      <x:c r="M44" s="2" t="s"/>
+      <x:c r="N44" s="2" t="s"/>
+      <x:c r="O44" s="2" t="s"/>
+      <x:c r="P44" s="2" t="s"/>
+      <x:c r="Q44" s="2" t="s"/>
+      <x:c r="R44" s="2" t="s"/>
+      <x:c r="S44" s="2" t="s"/>
+      <x:c r="T44" s="2" t="s"/>
+    </x:row>
+    <x:row r="45" spans="1:20">
+      <x:c r="A45" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B45" s="2" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="C45" s="2" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="D45" s="2" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="E45" s="3">
+        <x:v>45927.4796646181</x:v>
+      </x:c>
+      <x:c r="F45" s="2" t="s"/>
+      <x:c r="G45" s="2" t="s"/>
+      <x:c r="H45" s="2" t="s"/>
+      <x:c r="I45" s="2" t="s"/>
+      <x:c r="J45" s="2" t="s"/>
+      <x:c r="K45" s="2" t="s"/>
+      <x:c r="L45" s="2" t="s"/>
+      <x:c r="M45" s="2" t="s"/>
+      <x:c r="N45" s="2" t="s"/>
+      <x:c r="O45" s="2" t="s"/>
+      <x:c r="P45" s="2" t="s"/>
+      <x:c r="Q45" s="2" t="s"/>
+      <x:c r="R45" s="2" t="s"/>
+      <x:c r="S45" s="2" t="s"/>
+      <x:c r="T45" s="2" t="s"/>
+    </x:row>
+    <x:row r="46" spans="1:20">
+      <x:c r="A46" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B46" s="2" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="C46" s="2" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="D46" s="2" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="E46" s="3">
+        <x:v>45906.4157806366</x:v>
+      </x:c>
+      <x:c r="F46" s="2" t="s"/>
+      <x:c r="G46" s="2" t="s"/>
+      <x:c r="H46" s="2" t="s"/>
+      <x:c r="I46" s="2" t="s"/>
+      <x:c r="J46" s="2" t="s"/>
+      <x:c r="K46" s="2" t="s"/>
+      <x:c r="L46" s="2" t="s"/>
+      <x:c r="M46" s="2" t="s"/>
+      <x:c r="N46" s="2" t="s"/>
+      <x:c r="O46" s="2" t="s"/>
+      <x:c r="P46" s="2" t="s"/>
+      <x:c r="Q46" s="2" t="s"/>
+      <x:c r="R46" s="2" t="s"/>
+      <x:c r="S46" s="2" t="s"/>
+      <x:c r="T46" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SBES477_Tutorial-35519.xlsx
+++ b/downloaded_files/SBES477_Tutorial-35519.xlsx
@@ -141,6 +141,15 @@
     <x:t>Sama Mohamed Eid Mohamed</x:t>
   </x:si>
   <x:si>
+    <x:t>1210102</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سيف محمد سيد هاشم حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>seif mohamed sayed hashem</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210244</x:t>
   </x:si>
   <x:si>
@@ -150,15 +159,6 @@
     <x:t>Saif Hesham Abdelaziz Attia</x:t>
   </x:si>
   <x:si>
-    <x:t>1210366</x:t>
-  </x:si>
-  <x:si>
-    <x:t>شهاب طارق حلمي الحضري</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SHEHAP TAREK HELMY ELHADARY</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210246</x:t>
   </x:si>
   <x:si>
@@ -204,6 +204,15 @@
     <x:t>Omr Khaled Seif Allah Mohamed</x:t>
   </x:si>
   <x:si>
+    <x:t>1210107</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر سامح رمضان على منصور</x:t>
+  </x:si>
+  <x:si>
+    <x:t>omar sameh ramadan ali mansour</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210271</x:t>
   </x:si>
   <x:si>
@@ -247,15 +256,6 @@
   </x:si>
   <x:si>
     <x:t>Mahy tamer hassan Ibrahim</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210287</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد ابراهيم محمد الحسينى مرسى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MOHAMED IBRAHIM MOHAMED ELHOSSEINI MORSI</x:t>
   </x:si>
   <x:si>
     <x:t>1210112</x:t>
@@ -974,7 +974,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45927.4220653588</x:v>
+        <x:v>45927.8521626968</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -1326,7 +1326,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45927.4175393519</x:v>
+        <x:v>45927.7683773148</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1358,7 +1358,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4174870023</x:v>
+        <x:v>45927.4175393519</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1550,7 +1550,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4791952546</x:v>
+        <x:v>45927.7677984144</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1582,7 +1582,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4176945255</x:v>
+        <x:v>45906.4791952546</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1614,7 +1614,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4144965625</x:v>
+        <x:v>45906.4176945255</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1646,7 +1646,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4151895486</x:v>
+        <x:v>45906.4144965625</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1678,7 +1678,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.418968206</x:v>
+        <x:v>45907.4151895486</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1710,7 +1710,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4146040509</x:v>
+        <x:v>45907.418968206</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>

--- a/downloaded_files/SBES477_Tutorial-35519.xlsx
+++ b/downloaded_files/SBES477_Tutorial-35519.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -186,15 +186,6 @@
     <x:t>abdallah ahmed fouad</x:t>
   </x:si>
   <x:si>
-    <x:t>1210106</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر احمد محمد رفعت السيد حريشه</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar ahmed mohamed refaat el sayed</x:t>
-  </x:si>
-  <x:si>
     <x:t>4220130</x:t>
   </x:si>
   <x:si>
@@ -213,6 +204,15 @@
     <x:t>omar sameh ramadan ali mansour</x:t>
   </x:si>
   <x:si>
+    <x:t>1200209</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر عماد الدين عبد الحميد فرج جاهين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar emad eldin abdelhamid farag gahen</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210271</x:t>
   </x:si>
   <x:si>
@@ -346,6 +346,15 @@
   </x:si>
   <x:si>
     <x:t>Mehrati Sameh Milad Bebawy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210085</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ميار ايمن عبد السلام ابراهيم خفاجى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mayar ayman Abdelsalam  Ibrahim khafagy</x:t>
   </x:si>
   <x:si>
     <x:t>1210163</x:t>
@@ -551,7 +560,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E46" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -851,7 +860,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T46"/>
+  <x:dimension ref="A1:T47"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1486,7 +1495,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.4285945602</x:v>
+        <x:v>45906.4147752315</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1518,7 +1527,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4147752315</x:v>
+        <x:v>45927.7677984144</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1550,7 +1559,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45927.7677984144</x:v>
+        <x:v>45929.0515190972</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -2062,7 +2071,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.4148792014</x:v>
+        <x:v>45929.0190467593</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2094,7 +2103,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.4382373032</x:v>
+        <x:v>45906.4148792014</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2126,7 +2135,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.4148091782</x:v>
+        <x:v>45906.4382373032</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2158,7 +2167,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45927.41639375</x:v>
+        <x:v>45906.4148091782</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2190,7 +2199,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.4169562847</x:v>
+        <x:v>45927.41639375</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2222,7 +2231,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45906.4144693287</x:v>
+        <x:v>45907.4169562847</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2254,7 +2263,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.4156043171</x:v>
+        <x:v>45906.4144693287</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2286,7 +2295,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45927.417409294</x:v>
+        <x:v>45906.4156043171</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2318,7 +2327,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45927.4796646181</x:v>
+        <x:v>45927.417409294</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2350,7 +2359,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45906.4157806366</x:v>
+        <x:v>45927.4796646181</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2367,6 +2376,38 @@
       <x:c r="R46" s="2" t="s"/>
       <x:c r="S46" s="2" t="s"/>
       <x:c r="T46" s="2" t="s"/>
+    </x:row>
+    <x:row r="47" spans="1:20">
+      <x:c r="A47" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B47" s="2" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="C47" s="2" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="D47" s="2" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="E47" s="3">
+        <x:v>45906.4157806366</x:v>
+      </x:c>
+      <x:c r="F47" s="2" t="s"/>
+      <x:c r="G47" s="2" t="s"/>
+      <x:c r="H47" s="2" t="s"/>
+      <x:c r="I47" s="2" t="s"/>
+      <x:c r="J47" s="2" t="s"/>
+      <x:c r="K47" s="2" t="s"/>
+      <x:c r="L47" s="2" t="s"/>
+      <x:c r="M47" s="2" t="s"/>
+      <x:c r="N47" s="2" t="s"/>
+      <x:c r="O47" s="2" t="s"/>
+      <x:c r="P47" s="2" t="s"/>
+      <x:c r="Q47" s="2" t="s"/>
+      <x:c r="R47" s="2" t="s"/>
+      <x:c r="S47" s="2" t="s"/>
+      <x:c r="T47" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SBES477_Tutorial-35519.xlsx
+++ b/downloaded_files/SBES477_Tutorial-35519.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -186,6 +186,15 @@
     <x:t>abdallah ahmed fouad</x:t>
   </x:si>
   <x:si>
+    <x:t>1210106</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر احمد محمد رفعت السيد حريشه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar ahmed mohamed refaat el sayed</x:t>
+  </x:si>
+  <x:si>
     <x:t>4220130</x:t>
   </x:si>
   <x:si>
@@ -427,6 +436,15 @@
   </x:si>
   <x:si>
     <x:t>Youssef Gamal Helmy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2220010</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف حسانين احمد على السيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Hassanein Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1190292</x:t>
@@ -560,7 +578,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E49" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -860,7 +878,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T47"/>
+  <x:dimension ref="A1:T49"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1495,7 +1513,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4147752315</x:v>
+        <x:v>45929.61424375</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1527,7 +1545,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45927.7677984144</x:v>
+        <x:v>45906.4147752315</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1559,7 +1577,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45929.0515190972</x:v>
+        <x:v>45927.7677984144</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1591,7 +1609,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4791952546</x:v>
+        <x:v>45929.0515190972</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1623,7 +1641,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4176945255</x:v>
+        <x:v>45906.4791952546</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1655,7 +1673,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4144965625</x:v>
+        <x:v>45906.4176945255</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1687,7 +1705,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4151895486</x:v>
+        <x:v>45906.4144965625</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1719,7 +1737,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.418968206</x:v>
+        <x:v>45907.4151895486</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1751,7 +1769,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45927.4276226505</x:v>
+        <x:v>45907.418968206</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1783,7 +1801,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45927.4784335301</x:v>
+        <x:v>45927.4276226505</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1815,7 +1833,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.4151915856</x:v>
+        <x:v>45927.4784335301</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1847,7 +1865,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45927.4804253819</x:v>
+        <x:v>45906.4151915856</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1879,7 +1897,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.4145881944</x:v>
+        <x:v>45927.4804253819</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1911,7 +1929,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.4155145833</x:v>
+        <x:v>45906.4145881944</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1943,7 +1961,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.4150845718</x:v>
+        <x:v>45906.4155145833</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1975,7 +1993,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45927.4149894676</x:v>
+        <x:v>45906.4150845718</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2007,7 +2025,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.5663584144</x:v>
+        <x:v>45927.4149894676</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2039,7 +2057,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.4145290509</x:v>
+        <x:v>45906.5663584144</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2071,7 +2089,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45929.0190467593</x:v>
+        <x:v>45906.4145290509</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2103,7 +2121,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.4148792014</x:v>
+        <x:v>45929.0190467593</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2135,7 +2153,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.4382373032</x:v>
+        <x:v>45906.4148792014</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2167,7 +2185,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.4148091782</x:v>
+        <x:v>45906.4382373032</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2199,7 +2217,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45927.41639375</x:v>
+        <x:v>45906.4148091782</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2231,7 +2249,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.4169562847</x:v>
+        <x:v>45927.41639375</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2263,7 +2281,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.4144693287</x:v>
+        <x:v>45907.4169562847</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2295,7 +2313,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45906.4156043171</x:v>
+        <x:v>45906.4144693287</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2327,7 +2345,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45927.417409294</x:v>
+        <x:v>45906.4156043171</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2359,7 +2377,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45927.4796646181</x:v>
+        <x:v>45927.417409294</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2391,7 +2409,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45906.4157806366</x:v>
+        <x:v>45929.6102818634</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2408,6 +2426,70 @@
       <x:c r="R47" s="2" t="s"/>
       <x:c r="S47" s="2" t="s"/>
       <x:c r="T47" s="2" t="s"/>
+    </x:row>
+    <x:row r="48" spans="1:20">
+      <x:c r="A48" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B48" s="2" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="C48" s="2" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="D48" s="2" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="E48" s="3">
+        <x:v>45927.4796646181</x:v>
+      </x:c>
+      <x:c r="F48" s="2" t="s"/>
+      <x:c r="G48" s="2" t="s"/>
+      <x:c r="H48" s="2" t="s"/>
+      <x:c r="I48" s="2" t="s"/>
+      <x:c r="J48" s="2" t="s"/>
+      <x:c r="K48" s="2" t="s"/>
+      <x:c r="L48" s="2" t="s"/>
+      <x:c r="M48" s="2" t="s"/>
+      <x:c r="N48" s="2" t="s"/>
+      <x:c r="O48" s="2" t="s"/>
+      <x:c r="P48" s="2" t="s"/>
+      <x:c r="Q48" s="2" t="s"/>
+      <x:c r="R48" s="2" t="s"/>
+      <x:c r="S48" s="2" t="s"/>
+      <x:c r="T48" s="2" t="s"/>
+    </x:row>
+    <x:row r="49" spans="1:20">
+      <x:c r="A49" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B49" s="2" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="C49" s="2" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="D49" s="2" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="E49" s="3">
+        <x:v>45906.4157806366</x:v>
+      </x:c>
+      <x:c r="F49" s="2" t="s"/>
+      <x:c r="G49" s="2" t="s"/>
+      <x:c r="H49" s="2" t="s"/>
+      <x:c r="I49" s="2" t="s"/>
+      <x:c r="J49" s="2" t="s"/>
+      <x:c r="K49" s="2" t="s"/>
+      <x:c r="L49" s="2" t="s"/>
+      <x:c r="M49" s="2" t="s"/>
+      <x:c r="N49" s="2" t="s"/>
+      <x:c r="O49" s="2" t="s"/>
+      <x:c r="P49" s="2" t="s"/>
+      <x:c r="Q49" s="2" t="s"/>
+      <x:c r="R49" s="2" t="s"/>
+      <x:c r="S49" s="2" t="s"/>
+      <x:c r="T49" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SBES477_Tutorial-35519.xlsx
+++ b/downloaded_files/SBES477_Tutorial-35519.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -42,15 +42,6 @@
     <x:t>Ahmed Muhammed taha wesal</x:t>
   </x:si>
   <x:si>
-    <x:t>1210129</x:t>
-  </x:si>
-  <x:si>
-    <x:t>باسل أحمد حماد الشحات</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bassel ahmed hammad el shahat</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220229</x:t>
   </x:si>
   <x:si>
@@ -186,15 +177,6 @@
     <x:t>abdallah ahmed fouad</x:t>
   </x:si>
   <x:si>
-    <x:t>1210106</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر احمد محمد رفعت السيد حريشه</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar ahmed mohamed refaat el sayed</x:t>
-  </x:si>
-  <x:si>
     <x:t>4220130</x:t>
   </x:si>
   <x:si>
@@ -330,15 +312,6 @@
     <x:t>Mahmoud Mohamed abd alfatah Alsayed</x:t>
   </x:si>
   <x:si>
-    <x:t>1210077</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمود محمد محمود نصر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahmoud mohammed mahmoud nasr</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210378</x:t>
   </x:si>
   <x:si>
@@ -436,15 +409,6 @@
   </x:si>
   <x:si>
     <x:t>Youssef Gamal Helmy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2220010</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف حسانين احمد على السيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Hassanein Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1190292</x:t>
@@ -578,7 +542,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E49" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E45" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -878,7 +842,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T49"/>
+  <x:dimension ref="A1:T45"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1001,7 +965,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45927.8521626968</x:v>
+        <x:v>45907.4174366088</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -1033,7 +997,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.4174366088</x:v>
+        <x:v>45906.4155689815</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1065,7 +1029,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.4155689815</x:v>
+        <x:v>45907.4332609606</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1097,7 +1061,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4332609606</x:v>
+        <x:v>45927.4252511227</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1129,7 +1093,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45927.4252511227</x:v>
+        <x:v>45927.4485697107</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1161,7 +1125,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45927.4485697107</x:v>
+        <x:v>45906.4404302894</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1193,7 +1157,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.4404302894</x:v>
+        <x:v>45906.4200734954</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1225,7 +1189,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.4200734954</x:v>
+        <x:v>45906.6644150463</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1257,7 +1221,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6644150463</x:v>
+        <x:v>45906.4145134259</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1289,7 +1253,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4145134259</x:v>
+        <x:v>45906.4150404282</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1321,7 +1285,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4150404282</x:v>
+        <x:v>45927.7683773148</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1353,7 +1317,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45927.7683773148</x:v>
+        <x:v>45927.4175393519</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1385,7 +1349,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45927.4175393519</x:v>
+        <x:v>45906.4150041667</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1417,7 +1381,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4150041667</x:v>
+        <x:v>45906.415122419</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1449,7 +1413,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.415122419</x:v>
+        <x:v>45906.4164278935</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1481,7 +1445,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4164278935</x:v>
+        <x:v>45906.4147752315</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1513,7 +1477,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45929.61424375</x:v>
+        <x:v>45927.7677984144</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1545,7 +1509,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4147752315</x:v>
+        <x:v>45929.0515190972</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1577,7 +1541,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45927.7677984144</x:v>
+        <x:v>45906.4791952546</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1609,7 +1573,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45929.0515190972</x:v>
+        <x:v>45906.4176945255</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1641,7 +1605,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4791952546</x:v>
+        <x:v>45906.4144965625</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1673,7 +1637,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4176945255</x:v>
+        <x:v>45907.4151895486</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1705,7 +1669,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4144965625</x:v>
+        <x:v>45907.418968206</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1737,7 +1701,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4151895486</x:v>
+        <x:v>45927.4276226505</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1769,7 +1733,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.418968206</x:v>
+        <x:v>45927.4784335301</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1801,7 +1765,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45927.4276226505</x:v>
+        <x:v>45906.4151915856</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1833,7 +1797,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45927.4784335301</x:v>
+        <x:v>45927.4804253819</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1865,7 +1829,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.4151915856</x:v>
+        <x:v>45906.4145881944</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1897,7 +1861,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45927.4804253819</x:v>
+        <x:v>45906.4155145833</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1929,7 +1893,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.4145881944</x:v>
+        <x:v>45906.4150845718</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1961,7 +1925,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.4155145833</x:v>
+        <x:v>45906.5663584144</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1993,7 +1957,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.4150845718</x:v>
+        <x:v>45906.4145290509</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2025,7 +1989,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45927.4149894676</x:v>
+        <x:v>45929.0190467593</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2057,7 +2021,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.5663584144</x:v>
+        <x:v>45906.4148792014</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2089,7 +2053,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.4145290509</x:v>
+        <x:v>45906.4382373032</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2121,7 +2085,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45929.0190467593</x:v>
+        <x:v>45906.4148091782</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2153,7 +2117,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.4148792014</x:v>
+        <x:v>45927.41639375</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2185,7 +2149,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.4382373032</x:v>
+        <x:v>45907.4169562847</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2217,7 +2181,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.4148091782</x:v>
+        <x:v>45906.4144693287</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2249,7 +2213,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45927.41639375</x:v>
+        <x:v>45906.4156043171</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2281,7 +2245,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.4169562847</x:v>
+        <x:v>45927.417409294</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2313,7 +2277,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45906.4144693287</x:v>
+        <x:v>45927.4796646181</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2345,7 +2309,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45906.4156043171</x:v>
+        <x:v>45906.4157806366</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2362,134 +2326,6 @@
       <x:c r="R45" s="2" t="s"/>
       <x:c r="S45" s="2" t="s"/>
       <x:c r="T45" s="2" t="s"/>
-    </x:row>
-    <x:row r="46" spans="1:20">
-      <x:c r="A46" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B46" s="2" t="s">
-        <x:v>137</x:v>
-      </x:c>
-      <x:c r="C46" s="2" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="D46" s="2" t="s">
-        <x:v>139</x:v>
-      </x:c>
-      <x:c r="E46" s="3">
-        <x:v>45927.417409294</x:v>
-      </x:c>
-      <x:c r="F46" s="2" t="s"/>
-      <x:c r="G46" s="2" t="s"/>
-      <x:c r="H46" s="2" t="s"/>
-      <x:c r="I46" s="2" t="s"/>
-      <x:c r="J46" s="2" t="s"/>
-      <x:c r="K46" s="2" t="s"/>
-      <x:c r="L46" s="2" t="s"/>
-      <x:c r="M46" s="2" t="s"/>
-      <x:c r="N46" s="2" t="s"/>
-      <x:c r="O46" s="2" t="s"/>
-      <x:c r="P46" s="2" t="s"/>
-      <x:c r="Q46" s="2" t="s"/>
-      <x:c r="R46" s="2" t="s"/>
-      <x:c r="S46" s="2" t="s"/>
-      <x:c r="T46" s="2" t="s"/>
-    </x:row>
-    <x:row r="47" spans="1:20">
-      <x:c r="A47" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B47" s="2" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="C47" s="2" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="D47" s="2" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="E47" s="3">
-        <x:v>45929.6102818634</x:v>
-      </x:c>
-      <x:c r="F47" s="2" t="s"/>
-      <x:c r="G47" s="2" t="s"/>
-      <x:c r="H47" s="2" t="s"/>
-      <x:c r="I47" s="2" t="s"/>
-      <x:c r="J47" s="2" t="s"/>
-      <x:c r="K47" s="2" t="s"/>
-      <x:c r="L47" s="2" t="s"/>
-      <x:c r="M47" s="2" t="s"/>
-      <x:c r="N47" s="2" t="s"/>
-      <x:c r="O47" s="2" t="s"/>
-      <x:c r="P47" s="2" t="s"/>
-      <x:c r="Q47" s="2" t="s"/>
-      <x:c r="R47" s="2" t="s"/>
-      <x:c r="S47" s="2" t="s"/>
-      <x:c r="T47" s="2" t="s"/>
-    </x:row>
-    <x:row r="48" spans="1:20">
-      <x:c r="A48" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B48" s="2" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="C48" s="2" t="s">
-        <x:v>144</x:v>
-      </x:c>
-      <x:c r="D48" s="2" t="s">
-        <x:v>145</x:v>
-      </x:c>
-      <x:c r="E48" s="3">
-        <x:v>45927.4796646181</x:v>
-      </x:c>
-      <x:c r="F48" s="2" t="s"/>
-      <x:c r="G48" s="2" t="s"/>
-      <x:c r="H48" s="2" t="s"/>
-      <x:c r="I48" s="2" t="s"/>
-      <x:c r="J48" s="2" t="s"/>
-      <x:c r="K48" s="2" t="s"/>
-      <x:c r="L48" s="2" t="s"/>
-      <x:c r="M48" s="2" t="s"/>
-      <x:c r="N48" s="2" t="s"/>
-      <x:c r="O48" s="2" t="s"/>
-      <x:c r="P48" s="2" t="s"/>
-      <x:c r="Q48" s="2" t="s"/>
-      <x:c r="R48" s="2" t="s"/>
-      <x:c r="S48" s="2" t="s"/>
-      <x:c r="T48" s="2" t="s"/>
-    </x:row>
-    <x:row r="49" spans="1:20">
-      <x:c r="A49" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B49" s="2" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="C49" s="2" t="s">
-        <x:v>147</x:v>
-      </x:c>
-      <x:c r="D49" s="2" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="E49" s="3">
-        <x:v>45906.4157806366</x:v>
-      </x:c>
-      <x:c r="F49" s="2" t="s"/>
-      <x:c r="G49" s="2" t="s"/>
-      <x:c r="H49" s="2" t="s"/>
-      <x:c r="I49" s="2" t="s"/>
-      <x:c r="J49" s="2" t="s"/>
-      <x:c r="K49" s="2" t="s"/>
-      <x:c r="L49" s="2" t="s"/>
-      <x:c r="M49" s="2" t="s"/>
-      <x:c r="N49" s="2" t="s"/>
-      <x:c r="O49" s="2" t="s"/>
-      <x:c r="P49" s="2" t="s"/>
-      <x:c r="Q49" s="2" t="s"/>
-      <x:c r="R49" s="2" t="s"/>
-      <x:c r="S49" s="2" t="s"/>
-      <x:c r="T49" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SBES477_Tutorial-35519.xlsx
+++ b/downloaded_files/SBES477_Tutorial-35519.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -51,15 +51,6 @@
     <x:t>Jumana Amr Moustafa Abd ElSaleh Orabi</x:t>
   </x:si>
   <x:si>
-    <x:t>1210098</x:t>
-  </x:si>
-  <x:si>
-    <x:t>جمانه احمد محمد عبد العزيز العشرى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jumana Ahmed Mohamed El-Ashry</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210212</x:t>
   </x:si>
   <x:si>
@@ -87,15 +78,6 @@
     <x:t>Hamza Ayman Mohyeldin Elghonemy</x:t>
   </x:si>
   <x:si>
-    <x:t>1210134</x:t>
-  </x:si>
-  <x:si>
-    <x:t>رنا ياسر محمد صبري الباجا</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rana Yasser Mohamed Sabry El Baga</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210100</x:t>
   </x:si>
   <x:si>
@@ -141,15 +123,6 @@
     <x:t>seif mohamed sayed hashem</x:t>
   </x:si>
   <x:si>
-    <x:t>1210244</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سيف هشام عبد العزيز عطيه</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Saif Hesham Abdelaziz Attia</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210246</x:t>
   </x:si>
   <x:si>
@@ -159,15 +132,6 @@
     <x:t>Tarek Waleed Fathy Mohamed Aref</x:t>
   </x:si>
   <x:si>
-    <x:t>4220121</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عاليه طارق عمر طلبه زايد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Alia Tarek Omr Tolba Zayed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1200812</x:t>
   </x:si>
   <x:si>
@@ -204,15 +168,6 @@
     <x:t>Omar emad eldin abdelhamid farag gahen</x:t>
   </x:si>
   <x:si>
-    <x:t>1210271</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمرو احمد صفوت احمد عبد المولى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AMROU AHMED SAFWAT AHMED ABDELMAWLA</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210273</x:t>
   </x:si>
   <x:si>
@@ -364,15 +319,6 @@
   </x:si>
   <x:si>
     <x:t>Hamsa Saber Abdulrazek Abokhatwa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210120</x:t>
-  </x:si>
-  <x:si>
-    <x:t>هنا احمد ابراهيم احمد غانم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hana Ahmed Ebrahim Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1220086</x:t>
@@ -542,7 +488,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E45" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E39" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -842,7 +788,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T45"/>
+  <x:dimension ref="A1:T39"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -997,7 +943,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.4155689815</x:v>
+        <x:v>45907.4332609606</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1029,7 +975,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4332609606</x:v>
+        <x:v>45927.4252511227</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1061,7 +1007,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45927.4252511227</x:v>
+        <x:v>45927.4485697107</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1093,7 +1039,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45927.4485697107</x:v>
+        <x:v>45906.4200734954</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1125,7 +1071,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.4404302894</x:v>
+        <x:v>45906.6644150463</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1157,7 +1103,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.4200734954</x:v>
+        <x:v>45906.4145134259</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1189,7 +1135,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6644150463</x:v>
+        <x:v>45906.4150404282</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1221,7 +1167,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4145134259</x:v>
+        <x:v>45927.7683773148</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1253,7 +1199,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4150404282</x:v>
+        <x:v>45906.4150041667</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1285,7 +1231,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45927.7683773148</x:v>
+        <x:v>45906.4164278935</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1317,7 +1263,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45927.4175393519</x:v>
+        <x:v>45906.4147752315</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1349,7 +1295,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4150041667</x:v>
+        <x:v>45927.7677984144</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1381,7 +1327,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.415122419</x:v>
+        <x:v>45929.0515190972</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1413,7 +1359,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4164278935</x:v>
+        <x:v>45906.4176945255</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1445,7 +1391,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4147752315</x:v>
+        <x:v>45906.4144965625</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1477,7 +1423,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.7677984144</x:v>
+        <x:v>45907.4151895486</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1509,7 +1455,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45929.0515190972</x:v>
+        <x:v>45907.418968206</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1541,7 +1487,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4791952546</x:v>
+        <x:v>45927.4276226505</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1573,7 +1519,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4176945255</x:v>
+        <x:v>45927.4784335301</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1605,7 +1551,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4144965625</x:v>
+        <x:v>45906.4151915856</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1637,7 +1583,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4151895486</x:v>
+        <x:v>45927.4804253819</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1669,7 +1615,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.418968206</x:v>
+        <x:v>45906.4145881944</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1701,7 +1647,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45927.4276226505</x:v>
+        <x:v>45906.4155145833</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1733,7 +1679,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45927.4784335301</x:v>
+        <x:v>45906.4150845718</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1765,7 +1711,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.4151915856</x:v>
+        <x:v>45906.5663584144</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1797,7 +1743,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45927.4804253819</x:v>
+        <x:v>45906.4145290509</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1829,7 +1775,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.4145881944</x:v>
+        <x:v>45929.0190467593</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1861,7 +1807,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.4155145833</x:v>
+        <x:v>45906.4148792014</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1893,7 +1839,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.4150845718</x:v>
+        <x:v>45906.4382373032</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1925,7 +1871,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.5663584144</x:v>
+        <x:v>45906.4148091782</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1957,7 +1903,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.4145290509</x:v>
+        <x:v>45907.4169562847</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1989,7 +1935,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45929.0190467593</x:v>
+        <x:v>45906.4144693287</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2021,7 +1967,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.4148792014</x:v>
+        <x:v>45906.4156043171</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2053,7 +1999,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.4382373032</x:v>
+        <x:v>45927.417409294</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2085,7 +2031,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.4148091782</x:v>
+        <x:v>45927.4796646181</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2117,7 +2063,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45927.41639375</x:v>
+        <x:v>45906.4157806366</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2134,198 +2080,6 @@
       <x:c r="R39" s="2" t="s"/>
       <x:c r="S39" s="2" t="s"/>
       <x:c r="T39" s="2" t="s"/>
-    </x:row>
-    <x:row r="40" spans="1:20">
-      <x:c r="A40" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B40" s="2" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="C40" s="2" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="D40" s="2" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="E40" s="3">
-        <x:v>45907.4169562847</x:v>
-      </x:c>
-      <x:c r="F40" s="2" t="s"/>
-      <x:c r="G40" s="2" t="s"/>
-      <x:c r="H40" s="2" t="s"/>
-      <x:c r="I40" s="2" t="s"/>
-      <x:c r="J40" s="2" t="s"/>
-      <x:c r="K40" s="2" t="s"/>
-      <x:c r="L40" s="2" t="s"/>
-      <x:c r="M40" s="2" t="s"/>
-      <x:c r="N40" s="2" t="s"/>
-      <x:c r="O40" s="2" t="s"/>
-      <x:c r="P40" s="2" t="s"/>
-      <x:c r="Q40" s="2" t="s"/>
-      <x:c r="R40" s="2" t="s"/>
-      <x:c r="S40" s="2" t="s"/>
-      <x:c r="T40" s="2" t="s"/>
-    </x:row>
-    <x:row r="41" spans="1:20">
-      <x:c r="A41" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B41" s="2" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="C41" s="2" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="D41" s="2" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="E41" s="3">
-        <x:v>45906.4144693287</x:v>
-      </x:c>
-      <x:c r="F41" s="2" t="s"/>
-      <x:c r="G41" s="2" t="s"/>
-      <x:c r="H41" s="2" t="s"/>
-      <x:c r="I41" s="2" t="s"/>
-      <x:c r="J41" s="2" t="s"/>
-      <x:c r="K41" s="2" t="s"/>
-      <x:c r="L41" s="2" t="s"/>
-      <x:c r="M41" s="2" t="s"/>
-      <x:c r="N41" s="2" t="s"/>
-      <x:c r="O41" s="2" t="s"/>
-      <x:c r="P41" s="2" t="s"/>
-      <x:c r="Q41" s="2" t="s"/>
-      <x:c r="R41" s="2" t="s"/>
-      <x:c r="S41" s="2" t="s"/>
-      <x:c r="T41" s="2" t="s"/>
-    </x:row>
-    <x:row r="42" spans="1:20">
-      <x:c r="A42" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B42" s="2" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="C42" s="2" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="D42" s="2" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="E42" s="3">
-        <x:v>45906.4156043171</x:v>
-      </x:c>
-      <x:c r="F42" s="2" t="s"/>
-      <x:c r="G42" s="2" t="s"/>
-      <x:c r="H42" s="2" t="s"/>
-      <x:c r="I42" s="2" t="s"/>
-      <x:c r="J42" s="2" t="s"/>
-      <x:c r="K42" s="2" t="s"/>
-      <x:c r="L42" s="2" t="s"/>
-      <x:c r="M42" s="2" t="s"/>
-      <x:c r="N42" s="2" t="s"/>
-      <x:c r="O42" s="2" t="s"/>
-      <x:c r="P42" s="2" t="s"/>
-      <x:c r="Q42" s="2" t="s"/>
-      <x:c r="R42" s="2" t="s"/>
-      <x:c r="S42" s="2" t="s"/>
-      <x:c r="T42" s="2" t="s"/>
-    </x:row>
-    <x:row r="43" spans="1:20">
-      <x:c r="A43" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B43" s="2" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="C43" s="2" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="D43" s="2" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="E43" s="3">
-        <x:v>45927.417409294</x:v>
-      </x:c>
-      <x:c r="F43" s="2" t="s"/>
-      <x:c r="G43" s="2" t="s"/>
-      <x:c r="H43" s="2" t="s"/>
-      <x:c r="I43" s="2" t="s"/>
-      <x:c r="J43" s="2" t="s"/>
-      <x:c r="K43" s="2" t="s"/>
-      <x:c r="L43" s="2" t="s"/>
-      <x:c r="M43" s="2" t="s"/>
-      <x:c r="N43" s="2" t="s"/>
-      <x:c r="O43" s="2" t="s"/>
-      <x:c r="P43" s="2" t="s"/>
-      <x:c r="Q43" s="2" t="s"/>
-      <x:c r="R43" s="2" t="s"/>
-      <x:c r="S43" s="2" t="s"/>
-      <x:c r="T43" s="2" t="s"/>
-    </x:row>
-    <x:row r="44" spans="1:20">
-      <x:c r="A44" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B44" s="2" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="C44" s="2" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="D44" s="2" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="E44" s="3">
-        <x:v>45927.4796646181</x:v>
-      </x:c>
-      <x:c r="F44" s="2" t="s"/>
-      <x:c r="G44" s="2" t="s"/>
-      <x:c r="H44" s="2" t="s"/>
-      <x:c r="I44" s="2" t="s"/>
-      <x:c r="J44" s="2" t="s"/>
-      <x:c r="K44" s="2" t="s"/>
-      <x:c r="L44" s="2" t="s"/>
-      <x:c r="M44" s="2" t="s"/>
-      <x:c r="N44" s="2" t="s"/>
-      <x:c r="O44" s="2" t="s"/>
-      <x:c r="P44" s="2" t="s"/>
-      <x:c r="Q44" s="2" t="s"/>
-      <x:c r="R44" s="2" t="s"/>
-      <x:c r="S44" s="2" t="s"/>
-      <x:c r="T44" s="2" t="s"/>
-    </x:row>
-    <x:row r="45" spans="1:20">
-      <x:c r="A45" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B45" s="2" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="C45" s="2" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="D45" s="2" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="E45" s="3">
-        <x:v>45906.4157806366</x:v>
-      </x:c>
-      <x:c r="F45" s="2" t="s"/>
-      <x:c r="G45" s="2" t="s"/>
-      <x:c r="H45" s="2" t="s"/>
-      <x:c r="I45" s="2" t="s"/>
-      <x:c r="J45" s="2" t="s"/>
-      <x:c r="K45" s="2" t="s"/>
-      <x:c r="L45" s="2" t="s"/>
-      <x:c r="M45" s="2" t="s"/>
-      <x:c r="N45" s="2" t="s"/>
-      <x:c r="O45" s="2" t="s"/>
-      <x:c r="P45" s="2" t="s"/>
-      <x:c r="Q45" s="2" t="s"/>
-      <x:c r="R45" s="2" t="s"/>
-      <x:c r="S45" s="2" t="s"/>
-      <x:c r="T45" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SBES477_Tutorial-35519.xlsx
+++ b/downloaded_files/SBES477_Tutorial-35519.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -211,15 +211,6 @@
   </x:si>
   <x:si>
     <x:t>Mohamed ElKassem Ahmed Elgamil Ahmed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1200245</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد ايمن محمد ابراهيم الجعفراوى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Ayman Mohamed Ibrahim</x:t>
   </x:si>
   <x:si>
     <x:t>1200434</x:t>
@@ -488,7 +479,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E39" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -788,7 +779,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T39"/>
+  <x:dimension ref="A1:T38"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1519,7 +1510,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45927.4784335301</x:v>
+        <x:v>45906.4151915856</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1551,7 +1542,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4151915856</x:v>
+        <x:v>45927.4804253819</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1583,7 +1574,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45927.4804253819</x:v>
+        <x:v>45906.4145881944</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1615,7 +1606,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4145881944</x:v>
+        <x:v>45906.4155145833</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1647,7 +1638,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4155145833</x:v>
+        <x:v>45906.4150845718</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1679,7 +1670,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.4150845718</x:v>
+        <x:v>45906.5663584144</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1711,7 +1702,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.5663584144</x:v>
+        <x:v>45906.4145290509</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1743,7 +1734,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.4145290509</x:v>
+        <x:v>45929.0190467593</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1775,7 +1766,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45929.0190467593</x:v>
+        <x:v>45906.4148792014</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1807,7 +1798,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.4148792014</x:v>
+        <x:v>45906.4382373032</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1839,7 +1830,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.4382373032</x:v>
+        <x:v>45906.4148091782</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1871,7 +1862,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.4148091782</x:v>
+        <x:v>45907.4169562847</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1903,7 +1894,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4169562847</x:v>
+        <x:v>45906.4144693287</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1935,7 +1926,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.4144693287</x:v>
+        <x:v>45906.4156043171</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1967,7 +1958,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.4156043171</x:v>
+        <x:v>45927.417409294</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1999,7 +1990,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45927.417409294</x:v>
+        <x:v>45927.4796646181</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2031,7 +2022,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45927.4796646181</x:v>
+        <x:v>45906.4157806366</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2048,38 +2039,6 @@
       <x:c r="R38" s="2" t="s"/>
       <x:c r="S38" s="2" t="s"/>
       <x:c r="T38" s="2" t="s"/>
-    </x:row>
-    <x:row r="39" spans="1:20">
-      <x:c r="A39" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B39" s="2" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="C39" s="2" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D39" s="2" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="E39" s="3">
-        <x:v>45906.4157806366</x:v>
-      </x:c>
-      <x:c r="F39" s="2" t="s"/>
-      <x:c r="G39" s="2" t="s"/>
-      <x:c r="H39" s="2" t="s"/>
-      <x:c r="I39" s="2" t="s"/>
-      <x:c r="J39" s="2" t="s"/>
-      <x:c r="K39" s="2" t="s"/>
-      <x:c r="L39" s="2" t="s"/>
-      <x:c r="M39" s="2" t="s"/>
-      <x:c r="N39" s="2" t="s"/>
-      <x:c r="O39" s="2" t="s"/>
-      <x:c r="P39" s="2" t="s"/>
-      <x:c r="Q39" s="2" t="s"/>
-      <x:c r="R39" s="2" t="s"/>
-      <x:c r="S39" s="2" t="s"/>
-      <x:c r="T39" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SBES477_Tutorial-35519.xlsx
+++ b/downloaded_files/SBES477_Tutorial-35519.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -301,15 +301,6 @@
   </x:si>
   <x:si>
     <x:t>Nouran Mohamed Adelrhman Aboud</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210359</x:t>
-  </x:si>
-  <x:si>
-    <x:t>همسه صابر عبدالرازق ابوخطوة</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hamsa Saber Abdulrazek Abokhatwa</x:t>
   </x:si>
   <x:si>
     <x:t>1220086</x:t>
@@ -479,7 +470,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -779,7 +770,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T38"/>
+  <x:dimension ref="A1:T37"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1830,7 +1821,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.4148091782</x:v>
+        <x:v>45907.4169562847</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1862,7 +1853,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4169562847</x:v>
+        <x:v>45906.4144693287</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1894,7 +1885,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.4144693287</x:v>
+        <x:v>45906.4156043171</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1926,7 +1917,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.4156043171</x:v>
+        <x:v>45927.417409294</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1958,7 +1949,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45927.417409294</x:v>
+        <x:v>45927.4796646181</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1990,7 +1981,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45927.4796646181</x:v>
+        <x:v>45906.4157806366</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2007,38 +1998,6 @@
       <x:c r="R37" s="2" t="s"/>
       <x:c r="S37" s="2" t="s"/>
       <x:c r="T37" s="2" t="s"/>
-    </x:row>
-    <x:row r="38" spans="1:20">
-      <x:c r="A38" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B38" s="2" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="C38" s="2" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D38" s="2" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="E38" s="3">
-        <x:v>45906.4157806366</x:v>
-      </x:c>
-      <x:c r="F38" s="2" t="s"/>
-      <x:c r="G38" s="2" t="s"/>
-      <x:c r="H38" s="2" t="s"/>
-      <x:c r="I38" s="2" t="s"/>
-      <x:c r="J38" s="2" t="s"/>
-      <x:c r="K38" s="2" t="s"/>
-      <x:c r="L38" s="2" t="s"/>
-      <x:c r="M38" s="2" t="s"/>
-      <x:c r="N38" s="2" t="s"/>
-      <x:c r="O38" s="2" t="s"/>
-      <x:c r="P38" s="2" t="s"/>
-      <x:c r="Q38" s="2" t="s"/>
-      <x:c r="R38" s="2" t="s"/>
-      <x:c r="S38" s="2" t="s"/>
-      <x:c r="T38" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
